--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB38D6A-0C80-4BCF-A7F4-1FF4FA335030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8263FD73-10CD-418E-BB49-C80F36D81CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21705" yWindow="315" windowWidth="19980" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48320" yWindow="5010" windowWidth="26370" windowHeight="14870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
     <t>Integration</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -455,13 +455,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>17045</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>17045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>17045</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>112295</xdr:rowOff>
@@ -805,78 +805,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="L2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="26">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>M2*M3</f>
-        <v>257845</v>
+        <v>227994</v>
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>17653</v>
+        <v>20457</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>8436</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>M4-M5+M6</f>
-        <v>240192</v>
-      </c>
-    </row>
-    <row r="8" spans="12:14" x14ac:dyDescent="0.2">
+        <v>215973</v>
+      </c>
+    </row>
+    <row r="8" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M8" s="3"/>
     </row>
   </sheetData>
@@ -886,59 +884,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C911EF7-9F5A-4F57-B991-3E7AE6D7AE6D}">
-  <dimension ref="A1:EN71"/>
+  <dimension ref="A1:ER71"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="5" customWidth="1"/>
-    <col min="3" max="7" width="8.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="5" customWidth="1"/>
+    <col min="3" max="7" width="8.54296875" style="5" customWidth="1"/>
     <col min="8" max="17" width="9" style="5" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="5"/>
-    <col min="22" max="27" width="9.140625" style="13"/>
-    <col min="28" max="29" width="9.140625" style="5"/>
-    <col min="30" max="30" width="11.7109375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="5"/>
+    <col min="18" max="25" width="9.1796875" style="5"/>
+    <col min="26" max="31" width="9.1796875" style="13"/>
+    <col min="32" max="33" width="9.1796875" style="5"/>
+    <col min="34" max="34" width="11.7265625" style="5" customWidth="1"/>
+    <col min="35" max="35" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="V2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
         <v>44226</v>
       </c>
@@ -997,29 +995,33 @@
         <f>+P3+365</f>
         <v>45777</v>
       </c>
-      <c r="V3" s="14">
+      <c r="U3" s="9">
+        <f>+Q3+365</f>
+        <v>45869</v>
+      </c>
+      <c r="Z3" s="14">
         <v>43131</v>
       </c>
-      <c r="W3" s="14">
+      <c r="AA3" s="14">
         <v>43496</v>
       </c>
-      <c r="X3" s="14">
+      <c r="AB3" s="14">
         <v>43861</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="AC3" s="14">
         <v>44227</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AD3" s="14">
         <v>44592</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AE3" s="14">
         <v>44957</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AF3" s="14">
         <v>45322</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>66</v>
       </c>
@@ -1044,24 +1046,24 @@
       <c r="Q4" s="23">
         <v>53.5</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
-    </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+    </row>
+    <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+    </row>
+    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>67</v>
       </c>
@@ -1071,15 +1073,15 @@
       <c r="Q6" s="6">
         <v>2071</v>
       </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+    </row>
+    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>68</v>
       </c>
@@ -1089,15 +1091,15 @@
       <c r="Q7" s="6">
         <v>2257</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+    </row>
+    <row r="8" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>69</v>
       </c>
@@ -1107,15 +1109,15 @@
       <c r="Q8" s="6">
         <v>1786</v>
       </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+    </row>
+    <row r="9" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>70</v>
       </c>
@@ -1125,15 +1127,15 @@
       <c r="Q9" s="6">
         <v>1308</v>
       </c>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+    </row>
+    <row r="10" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>71</v>
       </c>
@@ -1143,24 +1145,24 @@
       <c r="Q10" s="6">
         <v>1342</v>
       </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+    </row>
+    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+    </row>
+    <row r="12" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1207,29 +1209,32 @@
       <c r="Q12" s="6">
         <v>8764</v>
       </c>
-      <c r="V12" s="15">
+      <c r="U12" s="6">
+        <v>9690</v>
+      </c>
+      <c r="Z12" s="15">
         <v>9766</v>
       </c>
-      <c r="W12" s="15">
+      <c r="AA12" s="15">
         <v>12413</v>
       </c>
-      <c r="X12" s="15">
+      <c r="AB12" s="15">
         <v>16043</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="AC12" s="15">
         <v>19976</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AD12" s="15">
         <f>SUM(D12:G12)</f>
         <v>24657</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AE12" s="15">
         <f>SUM(H12:K12)</f>
         <v>29021</v>
       </c>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="15"/>
+    </row>
+    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1276,29 +1281,32 @@
       <c r="Q13" s="6">
         <v>561</v>
       </c>
-      <c r="V13" s="15">
+      <c r="U13" s="6">
+        <v>546</v>
+      </c>
+      <c r="Z13" s="15">
         <v>774</v>
       </c>
-      <c r="W13" s="15">
+      <c r="AA13" s="15">
         <v>869</v>
       </c>
-      <c r="X13" s="15">
+      <c r="AB13" s="15">
         <v>1055</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="AC13" s="15">
         <v>1276</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AD13" s="15">
         <f>SUM(D13:G13)</f>
         <v>1835</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AE13" s="15">
         <f>SUM(H13:K13)</f>
         <v>2331</v>
       </c>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="15"/>
+    </row>
+    <row r="14" spans="1:32" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1370,33 +1378,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="4">
-        <f t="shared" ref="V14:AA14" si="2">V12+V13</f>
+      <c r="U14" s="4">
+        <f t="shared" ref="U14" si="2">U12+U13</f>
+        <v>10236</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" ref="Z14:AE14" si="3">Z12+Z13</f>
         <v>10540</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" si="2"/>
+      <c r="AA14" s="4">
+        <f t="shared" si="3"/>
         <v>13282</v>
       </c>
-      <c r="X14" s="4">
-        <f t="shared" si="2"/>
+      <c r="AB14" s="4">
+        <f t="shared" si="3"/>
         <v>17098</v>
       </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="2"/>
+      <c r="AC14" s="4">
+        <f t="shared" si="3"/>
         <v>21252</v>
       </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="2"/>
+      <c r="AD14" s="4">
+        <f t="shared" si="3"/>
         <v>26492</v>
       </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="2"/>
+      <c r="AE14" s="4">
+        <f t="shared" si="3"/>
         <v>31352</v>
       </c>
-      <c r="AB14" s="16"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="16"/>
+    </row>
+    <row r="15" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1447,21 +1459,24 @@
       <c r="Q15" s="6">
         <v>2159</v>
       </c>
-      <c r="V15" s="15">
+      <c r="U15" s="6">
+        <v>2242</v>
+      </c>
+      <c r="Z15" s="15">
         <f>2033+740</f>
         <v>2773</v>
       </c>
-      <c r="W15" s="15">
+      <c r="AA15" s="15">
         <f>2604+847</f>
         <v>3451</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+    </row>
+    <row r="16" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
@@ -1494,48 +1509,52 @@
         <v>5749</v>
       </c>
       <c r="K16" s="6">
-        <f>+K14-K15</f>
+        <f t="shared" ref="K16:Q16" si="4">+K14-K15</f>
         <v>6284</v>
       </c>
       <c r="L16" s="6">
-        <f>+L14-L15</f>
+        <f t="shared" si="4"/>
         <v>6122</v>
       </c>
       <c r="M16" s="6">
-        <f>+M14-M15</f>
+        <f t="shared" si="4"/>
         <v>6490</v>
       </c>
       <c r="N16" s="6">
-        <f>+N14-N15</f>
+        <f t="shared" si="4"/>
         <v>6565</v>
       </c>
       <c r="O16" s="6">
-        <f>+O14-O15</f>
+        <f t="shared" si="4"/>
         <v>7139</v>
       </c>
       <c r="P16" s="6">
-        <f>+P14-P15</f>
+        <f t="shared" si="4"/>
         <v>6971</v>
       </c>
       <c r="Q16" s="6">
-        <f>+Q14-Q15</f>
+        <f t="shared" si="4"/>
         <v>7166</v>
       </c>
-      <c r="V16" s="15">
-        <f>+V14-V15</f>
+      <c r="U16" s="6">
+        <f>+U14-U15</f>
+        <v>7994</v>
+      </c>
+      <c r="Z16" s="15">
+        <f>+Z14-Z15</f>
         <v>7767</v>
       </c>
-      <c r="W16" s="15">
-        <f>+W14-W15</f>
+      <c r="AA16" s="15">
+        <f>+AA14-AA15</f>
         <v>9831</v>
       </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+    </row>
+    <row r="17" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1582,19 +1601,22 @@
       <c r="Q17" s="6">
         <v>1349</v>
       </c>
-      <c r="V17" s="15">
+      <c r="U17" s="6">
+        <v>1481</v>
+      </c>
+      <c r="Z17" s="15">
         <v>1553</v>
       </c>
-      <c r="W17" s="15">
+      <c r="AA17" s="15">
         <v>1886</v>
       </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+    </row>
+    <row r="18" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1641,19 +1663,22 @@
       <c r="Q18" s="6">
         <v>3224</v>
       </c>
-      <c r="V18" s="15">
+      <c r="U18" s="6">
+        <v>3443</v>
+      </c>
+      <c r="Z18" s="15">
         <v>4671</v>
       </c>
-      <c r="W18" s="15">
+      <c r="AA18" s="15">
         <v>6064</v>
       </c>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+    </row>
+    <row r="19" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1700,174 +1725,201 @@
       <c r="Q19" s="6">
         <v>711</v>
       </c>
-      <c r="V19" s="15">
+      <c r="U19" s="6">
+        <v>734</v>
+      </c>
+      <c r="Z19" s="15">
         <v>1089</v>
       </c>
-      <c r="W19" s="15">
+      <c r="AA19" s="15">
         <v>1346</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+    </row>
+    <row r="20" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20:K20" si="3">SUM(D17:D19)</f>
+        <f t="shared" ref="D20:K20" si="5">SUM(D17:D19)</f>
         <v>4054</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4395</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4981</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5488</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5346</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5400</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5289</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5099</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20:N20" si="4">SUM(L17:L19)</f>
+        <f t="shared" ref="L20:N20" si="6">SUM(L17:L19)</f>
         <v>4999</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4965</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5009</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:R20" si="5">SUM(O17:O19)</f>
+        <f t="shared" ref="O20:R20" si="7">SUM(O17:O19)</f>
         <v>5344</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5254</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5284</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V20" s="6">
-        <f t="shared" ref="V20:W20" si="6">SUM(V17:V19)</f>
+      <c r="S20" s="6">
+        <f t="shared" ref="S20:U20" si="8">SUM(S17:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="8"/>
+        <v>5658</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" ref="Z20:AA20" si="9">SUM(Z17:Z19)</f>
         <v>7313</v>
       </c>
-      <c r="W20" s="6">
-        <f t="shared" si="6"/>
+      <c r="AA20" s="6">
+        <f t="shared" si="9"/>
         <v>9296</v>
       </c>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+    </row>
+    <row r="21" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:K21" si="7">D16-D20</f>
+        <f t="shared" ref="D21:K21" si="10">D16-D20</f>
         <v>354</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>332</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-176</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>460</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1185</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" ref="L21:N21" si="8">L16-L20</f>
+        <f t="shared" ref="L21:N21" si="11">L16-L20</f>
         <v>1123</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1525</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1556</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:R21" si="9">O16-O20</f>
+        <f t="shared" ref="O21:R21" si="12">O16-O20</f>
         <v>1795</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1717</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1882</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V21" s="6">
-        <f t="shared" ref="V21:W21" si="10">V16-V20</f>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21:U21" si="13">S16-S20</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="13"/>
+        <v>2336</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" ref="Z21:AA21" si="14">Z16-Z20</f>
         <v>454</v>
       </c>
-      <c r="W21" s="6">
-        <f t="shared" si="10"/>
+      <c r="AA21" s="6">
+        <f t="shared" si="14"/>
         <v>535</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1914,85 +1966,102 @@
       <c r="Q22" s="5">
         <v>91</v>
       </c>
-      <c r="V22" s="13">
+      <c r="U22" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="13">
         <v>-87</v>
       </c>
-      <c r="W22" s="13">
+      <c r="AA22" s="13">
         <v>-154</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" ref="D23:K23" si="11">D22+D21</f>
+        <f t="shared" ref="D23:K23" si="15">D22+D21</f>
         <v>316</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-64</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-231</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-36</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>136</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>452</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1175</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23:Q23" si="12">L22+L21</f>
+        <f t="shared" ref="L23:U23" si="16">L22+L21</f>
         <v>1178</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1570</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1614</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1853</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1838</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1973</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="V23" s="6">
-        <f t="shared" ref="V23" si="13">V22+V21</f>
+      <c r="R23" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="16"/>
+        <v>2404</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" ref="Z23" si="17">Z22+Z21</f>
         <v>367</v>
       </c>
-      <c r="W23" s="6">
-        <f t="shared" ref="W23" si="14">W22+W21</f>
+      <c r="AA23" s="6">
+        <f t="shared" ref="AA23" si="18">AA22+AA21</f>
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2039,156 +2108,187 @@
       <c r="Q24" s="5">
         <v>408</v>
       </c>
-      <c r="V24" s="13">
+      <c r="U24" s="5">
+        <v>519</v>
+      </c>
+      <c r="Z24" s="13">
         <v>60</v>
       </c>
-      <c r="W24" s="13">
+      <c r="AA24" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:J25" si="15">D23-D24</f>
+        <f t="shared" ref="D25:J25" si="19">D23-D24</f>
         <v>181</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-64</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>107</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>187</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25" si="16">K23-K24</f>
+        <f t="shared" ref="K25" si="20">K23-K24</f>
         <v>1044</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25" si="17">L23-L24</f>
+        <f t="shared" ref="L25" si="21">L23-L24</f>
         <v>1051</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25" si="18">M23-M24</f>
+        <f t="shared" ref="M25" si="22">M23-M24</f>
         <v>1345</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25:Q25" si="19">N23-N24</f>
+        <f t="shared" ref="N25:U25" si="23">N23-N24</f>
         <v>1351</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1654</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1504</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1565</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="V25" s="6">
-        <f t="shared" ref="V25" si="20">V23-V24</f>
+      <c r="R25" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="23"/>
+        <v>1885</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" ref="Z25" si="24">Z23-Z24</f>
         <v>307</v>
       </c>
-      <c r="W25" s="6">
-        <f t="shared" ref="W25" si="21">W23-W24</f>
+      <c r="AA25" s="6">
+        <f t="shared" ref="AA25" si="25">AA23-AA24</f>
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" ref="D26:K26" si="22">D25/D27</f>
+        <f t="shared" ref="D26:K26" si="26">D25/D27</f>
         <v>0.1925531914893617</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.4736842105263164E-3</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-6.3936063936063936E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.10985626283367557</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.097902097902098E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2977022977022976E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.187</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0609756097560976</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" ref="L26:Q26" si="23">L25/L27</f>
+        <f t="shared" ref="L26:U26" si="27">L25/L27</f>
         <v>1.0637651821862348</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.3640973630831643</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.3771661569826708</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.6826042726347914</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.5269035532994923</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.6084275436793423</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="V26" s="7">
-        <f t="shared" ref="V26" si="24">V25/V27</f>
+      <c r="R26" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="27"/>
+        <v>1.9594594594594594</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" ref="Z26" si="28">Z25/Z27</f>
         <v>0.41768707482993195</v>
       </c>
-      <c r="W26" s="7">
-        <f t="shared" ref="W26" si="25">W25/W27</f>
+      <c r="AA26" s="7">
+        <f t="shared" ref="AA26" si="29">AA25/AA27</f>
         <v>0.49161290322580647</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2234,92 +2334,99 @@
       <c r="Q27" s="6">
         <v>973</v>
       </c>
-      <c r="V27" s="15">
+      <c r="U27" s="6">
+        <v>962</v>
+      </c>
+      <c r="Z27" s="15">
         <v>735</v>
       </c>
-      <c r="W27" s="15">
+      <c r="AA27" s="15">
         <v>775</v>
       </c>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-    </row>
-    <row r="29" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="29" spans="2:32" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="12">
-        <f>+H14/D14-1</f>
+        <f t="shared" ref="H29:Q29" si="30">+H14/D14-1</f>
         <v>0.24283078987087037</v>
       </c>
       <c r="I29" s="12">
-        <f>+I14/E14-1</f>
+        <f t="shared" si="30"/>
         <v>0.21766561514195581</v>
       </c>
       <c r="J29" s="12">
-        <f>+J14/F14-1</f>
+        <f t="shared" si="30"/>
         <v>0.14192044295497586</v>
       </c>
       <c r="K29" s="12">
-        <f>+K14/G14-1</f>
+        <f t="shared" si="30"/>
         <v>0.14441714441714448</v>
       </c>
       <c r="L29" s="12">
-        <f>+L14/H14-1</f>
+        <f t="shared" si="30"/>
         <v>0.11280528943462431</v>
       </c>
       <c r="M29" s="12">
-        <f>+M14/I14-1</f>
+        <f t="shared" si="30"/>
         <v>0.11437823834196892</v>
       </c>
       <c r="N29" s="12">
-        <f>+N14/J14-1</f>
+        <f t="shared" si="30"/>
         <v>0.11267066479520227</v>
       </c>
       <c r="O29" s="12">
-        <f>+O14/K14-1</f>
+        <f t="shared" si="30"/>
         <v>0.10770515267175562</v>
       </c>
       <c r="P29" s="12">
-        <f>+P14/L14-1</f>
+        <f t="shared" si="30"/>
         <v>0.10743300594155447</v>
       </c>
       <c r="Q29" s="12">
-        <f>+Q14/M14-1</f>
+        <f t="shared" si="30"/>
         <v>8.3924212484017158E-2</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="18">
-        <f t="shared" ref="W29:AB29" si="26">+W14/V14-1</f>
+      <c r="U29" s="12">
+        <f>+U14/Q14-1</f>
+        <v>9.7694369973190254E-2</v>
+      </c>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="18">
+        <f t="shared" ref="AA29:AF29" si="31">+AA14/Z14-1</f>
         <v>0.26015180265654658</v>
       </c>
-      <c r="X29" s="18">
-        <f t="shared" si="26"/>
+      <c r="AB29" s="18">
+        <f t="shared" si="31"/>
         <v>0.28730612859509108</v>
       </c>
-      <c r="Y29" s="18">
-        <f t="shared" si="26"/>
+      <c r="AC29" s="18">
+        <f t="shared" si="31"/>
         <v>0.24295239209264241</v>
       </c>
-      <c r="Z29" s="18">
-        <f t="shared" si="26"/>
+      <c r="AD29" s="18">
+        <f t="shared" si="31"/>
         <v>0.24656502917372491</v>
       </c>
-      <c r="AA29" s="18">
-        <f t="shared" si="26"/>
+      <c r="AE29" s="18">
+        <f t="shared" si="31"/>
         <v>0.18345160803261362</v>
       </c>
-      <c r="AB29" s="18">
-        <f t="shared" si="26"/>
+      <c r="AF29" s="18">
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N31" s="6">
         <f>+N32-N45</f>
@@ -2337,8 +2444,24 @@
         <f>+Q32-Q45</f>
         <v>17653</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="R31" s="6">
+        <f t="shared" ref="R31:U31" si="32">+R32-R45</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="32"/>
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2481,12 @@
         <f>7682+4954+5017</f>
         <v>17653</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U32" s="6">
+        <f>10365+5007+5085</f>
+        <v>20457</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>45</v>
       </c>
@@ -2375,8 +2502,9 @@
       <c r="Q33" s="6">
         <v>5391</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
         <v>47</v>
       </c>
@@ -2396,8 +2524,9 @@
         <f>1851+2201</f>
         <v>4052</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2542,9 @@
       <c r="Q35" s="6">
         <v>1984</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>48</v>
       </c>
@@ -2430,8 +2560,9 @@
       <c r="Q36" s="6">
         <v>3580</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>49</v>
       </c>
@@ -2447,8 +2578,9 @@
       <c r="Q37" s="6">
         <v>2130</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>50</v>
       </c>
@@ -2468,8 +2600,9 @@
         <f>4415+48941</f>
         <v>53356</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
@@ -2485,8 +2618,9 @@
       <c r="Q39" s="6">
         <v>4034</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
         <v>52</v>
       </c>
@@ -2506,8 +2640,12 @@
         <f>SUM(Q32:Q39)</f>
         <v>92180</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>55</v>
       </c>
@@ -2523,8 +2661,9 @@
       <c r="Q42" s="6">
         <v>5220</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>49</v>
       </c>
@@ -2544,8 +2683,9 @@
         <f>559+2404+8430</f>
         <v>11393</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
         <v>56</v>
       </c>
@@ -2561,8 +2701,9 @@
       <c r="Q44" s="6">
         <v>15222</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
         <v>4</v>
       </c>
@@ -2580,8 +2721,11 @@
       <c r="Q45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U45" s="6">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>57</v>
       </c>
@@ -2598,7 +2742,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2759,7 @@
         <v>57633</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
         <v>53</v>
       </c>
@@ -2636,66 +2780,66 @@
         <v>92180</v>
       </c>
     </row>
-    <row r="50" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ref="C50:J50" si="27">+C25</f>
+        <f t="shared" ref="C50:J50" si="33">+C25</f>
         <v>0</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>181</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-64</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>107</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>187</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" ref="N50:O50" si="28">+N25</f>
+        <f t="shared" ref="N50:O50" si="34">+N25</f>
         <v>1351</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1654</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" ref="P50:Q50" si="29">+P25</f>
+        <f t="shared" ref="P50:Q50" si="35">+P25</f>
         <v>1504</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1565</v>
       </c>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-    </row>
-    <row r="51" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+    </row>
+    <row r="51" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>23</v>
       </c>
@@ -2724,14 +2868,14 @@
       <c r="Q51" s="6">
         <v>1429</v>
       </c>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-    </row>
-    <row r="52" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+    </row>
+    <row r="52" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>26</v>
       </c>
@@ -2760,14 +2904,14 @@
       <c r="Q52" s="6">
         <v>907</v>
       </c>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-    </row>
-    <row r="53" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+    </row>
+    <row r="53" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>27</v>
       </c>
@@ -2796,14 +2940,14 @@
       <c r="Q53" s="6">
         <v>526</v>
       </c>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-    </row>
-    <row r="54" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+    </row>
+    <row r="54" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2832,14 +2976,14 @@
       <c r="Q54" s="6">
         <v>810</v>
       </c>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
-    </row>
-    <row r="55" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+    </row>
+    <row r="55" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>29</v>
       </c>
@@ -2868,14 +3012,14 @@
       <c r="Q55" s="6">
         <v>37</v>
       </c>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
-    </row>
-    <row r="56" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+    </row>
+    <row r="56" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>30</v>
       </c>
@@ -2911,14 +3055,14 @@
         <f>-1136-427-477+220-158-839</f>
         <v>-2817</v>
       </c>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-    </row>
-    <row r="57" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+    </row>
+    <row r="57" spans="2:148" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>25</v>
       </c>
@@ -2954,597 +3098,600 @@
         <f>SUM(Q51:Q56)</f>
         <v>892</v>
       </c>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15">
+      <c r="U57" s="6">
+        <v>740</v>
+      </c>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15">
         <v>4331</v>
       </c>
-      <c r="Z57" s="15">
+      <c r="AD57" s="15">
         <v>4801</v>
       </c>
-      <c r="AA57" s="15">
+      <c r="AE57" s="15">
         <v>6000</v>
       </c>
-      <c r="AB57" s="6">
+      <c r="AF57" s="6">
         <v>7000</v>
       </c>
-      <c r="AC57" s="6">
-        <f>+AB57*(1+$AE$61)</f>
+      <c r="AG57" s="6">
+        <f>+AF57*(1+$AI$61)</f>
         <v>7490</v>
       </c>
-      <c r="AD57" s="6">
-        <f t="shared" ref="AD57:AL57" si="30">+AC57*(1+$AE$61)</f>
+      <c r="AH57" s="6">
+        <f t="shared" ref="AH57:AP57" si="36">+AG57*(1+$AI$61)</f>
         <v>8014.3</v>
       </c>
-      <c r="AE57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AI57" s="6">
+        <f t="shared" si="36"/>
         <v>8575.3010000000013</v>
       </c>
-      <c r="AF57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AJ57" s="6">
+        <f t="shared" si="36"/>
         <v>9175.572070000002</v>
       </c>
-      <c r="AG57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AK57" s="6">
+        <f t="shared" si="36"/>
         <v>9817.8621149000028</v>
       </c>
-      <c r="AH57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AL57" s="6">
+        <f t="shared" si="36"/>
         <v>10505.112462943003</v>
       </c>
-      <c r="AI57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AM57" s="6">
+        <f t="shared" si="36"/>
         <v>11240.470335349015</v>
       </c>
-      <c r="AJ57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AN57" s="6">
+        <f t="shared" si="36"/>
         <v>12027.303258823447</v>
       </c>
-      <c r="AK57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AO57" s="6">
+        <f t="shared" si="36"/>
         <v>12869.214486941089</v>
       </c>
-      <c r="AL57" s="6">
-        <f t="shared" si="30"/>
+      <c r="AP57" s="6">
+        <f t="shared" si="36"/>
         <v>13770.059501026966</v>
       </c>
-      <c r="AM57" s="6">
-        <f>AL57*(1+$AE$62)</f>
+      <c r="AQ57" s="6">
+        <f>AP57*(1+$AI$62)</f>
         <v>13907.760096037237</v>
       </c>
-      <c r="AN57" s="6">
-        <f t="shared" ref="AN57:CY57" si="31">AM57*(1+$AE$62)</f>
+      <c r="AR57" s="6">
+        <f t="shared" ref="AR57:DC57" si="37">AQ57*(1+$AI$62)</f>
         <v>14046.837696997609</v>
       </c>
-      <c r="AO57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AS57" s="6">
+        <f t="shared" si="37"/>
         <v>14187.306073967586</v>
       </c>
-      <c r="AP57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AT57" s="6">
+        <f t="shared" si="37"/>
         <v>14329.179134707261</v>
       </c>
-      <c r="AQ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AU57" s="6">
+        <f t="shared" si="37"/>
         <v>14472.470926054333</v>
       </c>
-      <c r="AR57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AV57" s="6">
+        <f t="shared" si="37"/>
         <v>14617.195635314876</v>
       </c>
-      <c r="AS57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AW57" s="6">
+        <f t="shared" si="37"/>
         <v>14763.367591668026</v>
       </c>
-      <c r="AT57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AX57" s="6">
+        <f t="shared" si="37"/>
         <v>14911.001267584707</v>
       </c>
-      <c r="AU57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AY57" s="6">
+        <f t="shared" si="37"/>
         <v>15060.111280260553</v>
       </c>
-      <c r="AV57" s="6">
-        <f t="shared" si="31"/>
+      <c r="AZ57" s="6">
+        <f t="shared" si="37"/>
         <v>15210.712393063159</v>
       </c>
-      <c r="AW57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BA57" s="6">
+        <f t="shared" si="37"/>
         <v>15362.81951699379</v>
       </c>
-      <c r="AX57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BB57" s="6">
+        <f t="shared" si="37"/>
         <v>15516.447712163728</v>
       </c>
-      <c r="AY57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BC57" s="6">
+        <f t="shared" si="37"/>
         <v>15671.612189285366</v>
       </c>
-      <c r="AZ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BD57" s="6">
+        <f t="shared" si="37"/>
         <v>15828.32831117822</v>
       </c>
-      <c r="BA57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BE57" s="6">
+        <f t="shared" si="37"/>
         <v>15986.611594290003</v>
       </c>
-      <c r="BB57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BF57" s="6">
+        <f t="shared" si="37"/>
         <v>16146.477710232903</v>
       </c>
-      <c r="BC57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BG57" s="6">
+        <f t="shared" si="37"/>
         <v>16307.942487335231</v>
       </c>
-      <c r="BD57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BH57" s="6">
+        <f t="shared" si="37"/>
         <v>16471.021912208584</v>
       </c>
-      <c r="BE57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BI57" s="6">
+        <f t="shared" si="37"/>
         <v>16635.732131330671</v>
       </c>
-      <c r="BF57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BJ57" s="6">
+        <f t="shared" si="37"/>
         <v>16802.089452643977</v>
       </c>
-      <c r="BG57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BK57" s="6">
+        <f t="shared" si="37"/>
         <v>16970.110347170415</v>
       </c>
-      <c r="BH57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BL57" s="6">
+        <f t="shared" si="37"/>
         <v>17139.811450642119</v>
       </c>
-      <c r="BI57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BM57" s="6">
+        <f t="shared" si="37"/>
         <v>17311.20956514854</v>
       </c>
-      <c r="BJ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BN57" s="6">
+        <f t="shared" si="37"/>
         <v>17484.321660800026</v>
       </c>
-      <c r="BK57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BO57" s="6">
+        <f t="shared" si="37"/>
         <v>17659.164877408028</v>
       </c>
-      <c r="BL57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BP57" s="6">
+        <f t="shared" si="37"/>
         <v>17835.756526182107</v>
       </c>
-      <c r="BM57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BQ57" s="6">
+        <f t="shared" si="37"/>
         <v>18014.114091443927</v>
       </c>
-      <c r="BN57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BR57" s="6">
+        <f t="shared" si="37"/>
         <v>18194.255232358366</v>
       </c>
-      <c r="BO57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BS57" s="6">
+        <f t="shared" si="37"/>
         <v>18376.19778468195</v>
       </c>
-      <c r="BP57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BT57" s="6">
+        <f t="shared" si="37"/>
         <v>18559.959762528768</v>
       </c>
-      <c r="BQ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BU57" s="6">
+        <f t="shared" si="37"/>
         <v>18745.559360154057</v>
       </c>
-      <c r="BR57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BV57" s="6">
+        <f t="shared" si="37"/>
         <v>18933.014953755599</v>
       </c>
-      <c r="BS57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BW57" s="6">
+        <f t="shared" si="37"/>
         <v>19122.345103293155</v>
       </c>
-      <c r="BT57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BX57" s="6">
+        <f t="shared" si="37"/>
         <v>19313.568554326088</v>
       </c>
-      <c r="BU57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BY57" s="6">
+        <f t="shared" si="37"/>
         <v>19506.704239869348</v>
       </c>
-      <c r="BV57" s="6">
-        <f t="shared" si="31"/>
+      <c r="BZ57" s="6">
+        <f t="shared" si="37"/>
         <v>19701.771282268041</v>
       </c>
-      <c r="BW57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CA57" s="6">
+        <f t="shared" si="37"/>
         <v>19898.788995090723</v>
       </c>
-      <c r="BX57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CB57" s="6">
+        <f t="shared" si="37"/>
         <v>20097.776885041629</v>
       </c>
-      <c r="BY57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CC57" s="6">
+        <f t="shared" si="37"/>
         <v>20298.754653892047</v>
       </c>
-      <c r="BZ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CD57" s="6">
+        <f t="shared" si="37"/>
         <v>20501.742200430966</v>
       </c>
-      <c r="CA57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CE57" s="6">
+        <f t="shared" si="37"/>
         <v>20706.759622435275</v>
       </c>
-      <c r="CB57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CF57" s="6">
+        <f t="shared" si="37"/>
         <v>20913.827218659626</v>
       </c>
-      <c r="CC57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CG57" s="6">
+        <f t="shared" si="37"/>
         <v>21122.965490846222</v>
       </c>
-      <c r="CD57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CH57" s="6">
+        <f t="shared" si="37"/>
         <v>21334.195145754686</v>
       </c>
-      <c r="CE57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CI57" s="6">
+        <f t="shared" si="37"/>
         <v>21547.537097212233</v>
       </c>
-      <c r="CF57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CJ57" s="6">
+        <f t="shared" si="37"/>
         <v>21763.012468184355</v>
       </c>
-      <c r="CG57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CK57" s="6">
+        <f t="shared" si="37"/>
         <v>21980.642592866199</v>
       </c>
-      <c r="CH57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CL57" s="6">
+        <f t="shared" si="37"/>
         <v>22200.449018794861</v>
       </c>
-      <c r="CI57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CM57" s="6">
+        <f t="shared" si="37"/>
         <v>22422.45350898281</v>
       </c>
-      <c r="CJ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CN57" s="6">
+        <f t="shared" si="37"/>
         <v>22646.678044072636</v>
       </c>
-      <c r="CK57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CO57" s="6">
+        <f t="shared" si="37"/>
         <v>22873.144824513362</v>
       </c>
-      <c r="CL57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CP57" s="6">
+        <f t="shared" si="37"/>
         <v>23101.876272758494</v>
       </c>
-      <c r="CM57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CQ57" s="6">
+        <f t="shared" si="37"/>
         <v>23332.895035486079</v>
       </c>
-      <c r="CN57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CR57" s="6">
+        <f t="shared" si="37"/>
         <v>23566.223985840941</v>
       </c>
-      <c r="CO57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CS57" s="6">
+        <f t="shared" si="37"/>
         <v>23801.886225699353</v>
       </c>
-      <c r="CP57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CT57" s="6">
+        <f t="shared" si="37"/>
         <v>24039.905087956347</v>
       </c>
-      <c r="CQ57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CU57" s="6">
+        <f t="shared" si="37"/>
         <v>24280.304138835912</v>
       </c>
-      <c r="CR57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CV57" s="6">
+        <f t="shared" si="37"/>
         <v>24523.107180224273</v>
       </c>
-      <c r="CS57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CW57" s="6">
+        <f t="shared" si="37"/>
         <v>24768.338252026515</v>
       </c>
-      <c r="CT57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CX57" s="6">
+        <f t="shared" si="37"/>
         <v>25016.021634546782</v>
       </c>
-      <c r="CU57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CY57" s="6">
+        <f t="shared" si="37"/>
         <v>25266.181850892248</v>
       </c>
-      <c r="CV57" s="6">
-        <f t="shared" si="31"/>
+      <c r="CZ57" s="6">
+        <f t="shared" si="37"/>
         <v>25518.843669401169</v>
       </c>
-      <c r="CW57" s="6">
-        <f t="shared" si="31"/>
+      <c r="DA57" s="6">
+        <f t="shared" si="37"/>
         <v>25774.032106095179</v>
       </c>
-      <c r="CX57" s="6">
-        <f t="shared" si="31"/>
+      <c r="DB57" s="6">
+        <f t="shared" si="37"/>
         <v>26031.772427156131</v>
       </c>
-      <c r="CY57" s="6">
-        <f t="shared" si="31"/>
+      <c r="DC57" s="6">
+        <f t="shared" si="37"/>
         <v>26292.090151427692</v>
       </c>
-      <c r="CZ57" s="6">
-        <f t="shared" ref="CZ57:EN57" si="32">CY57*(1+$AE$62)</f>
+      <c r="DD57" s="6">
+        <f t="shared" ref="DD57:ER57" si="38">DC57*(1+$AI$62)</f>
         <v>26555.011052941969</v>
       </c>
-      <c r="DA57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DE57" s="6">
+        <f t="shared" si="38"/>
         <v>26820.56116347139</v>
       </c>
-      <c r="DB57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DF57" s="6">
+        <f t="shared" si="38"/>
         <v>27088.766775106105</v>
       </c>
-      <c r="DC57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DG57" s="6">
+        <f t="shared" si="38"/>
         <v>27359.654442857165</v>
       </c>
-      <c r="DD57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DH57" s="6">
+        <f t="shared" si="38"/>
         <v>27633.250987285737</v>
       </c>
-      <c r="DE57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DI57" s="6">
+        <f t="shared" si="38"/>
         <v>27909.583497158594</v>
       </c>
-      <c r="DF57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DJ57" s="6">
+        <f t="shared" si="38"/>
         <v>28188.679332130181</v>
       </c>
-      <c r="DG57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DK57" s="6">
+        <f t="shared" si="38"/>
         <v>28470.566125451482</v>
       </c>
-      <c r="DH57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DL57" s="6">
+        <f t="shared" si="38"/>
         <v>28755.271786705998</v>
       </c>
-      <c r="DI57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DM57" s="6">
+        <f t="shared" si="38"/>
         <v>29042.824504573058</v>
       </c>
-      <c r="DJ57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DN57" s="6">
+        <f t="shared" si="38"/>
         <v>29333.25274961879</v>
       </c>
-      <c r="DK57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DO57" s="6">
+        <f t="shared" si="38"/>
         <v>29626.58527711498</v>
       </c>
-      <c r="DL57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DP57" s="6">
+        <f t="shared" si="38"/>
         <v>29922.85112988613</v>
       </c>
-      <c r="DM57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DQ57" s="6">
+        <f t="shared" si="38"/>
         <v>30222.079641184991</v>
       </c>
-      <c r="DN57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DR57" s="6">
+        <f t="shared" si="38"/>
         <v>30524.300437596841</v>
       </c>
-      <c r="DO57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DS57" s="6">
+        <f t="shared" si="38"/>
         <v>30829.543441972812</v>
       </c>
-      <c r="DP57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DT57" s="6">
+        <f t="shared" si="38"/>
         <v>31137.83887639254</v>
       </c>
-      <c r="DQ57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DU57" s="6">
+        <f t="shared" si="38"/>
         <v>31449.217265156465</v>
       </c>
-      <c r="DR57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DV57" s="6">
+        <f t="shared" si="38"/>
         <v>31763.709437808029</v>
       </c>
-      <c r="DS57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DW57" s="6">
+        <f t="shared" si="38"/>
         <v>32081.346532186111</v>
       </c>
-      <c r="DT57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DX57" s="6">
+        <f t="shared" si="38"/>
         <v>32402.159997507973</v>
       </c>
-      <c r="DU57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DY57" s="6">
+        <f t="shared" si="38"/>
         <v>32726.181597483053</v>
       </c>
-      <c r="DV57" s="6">
-        <f t="shared" si="32"/>
+      <c r="DZ57" s="6">
+        <f t="shared" si="38"/>
         <v>33053.443413457884</v>
       </c>
-      <c r="DW57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EA57" s="6">
+        <f t="shared" si="38"/>
         <v>33383.977847592461</v>
       </c>
-      <c r="DX57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EB57" s="6">
+        <f t="shared" si="38"/>
         <v>33717.817626068383</v>
       </c>
-      <c r="DY57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EC57" s="6">
+        <f t="shared" si="38"/>
         <v>34054.995802329067</v>
       </c>
-      <c r="DZ57" s="6">
-        <f t="shared" si="32"/>
+      <c r="ED57" s="6">
+        <f t="shared" si="38"/>
         <v>34395.545760352361</v>
       </c>
-      <c r="EA57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EE57" s="6">
+        <f t="shared" si="38"/>
         <v>34739.501217955883</v>
       </c>
-      <c r="EB57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EF57" s="6">
+        <f t="shared" si="38"/>
         <v>35086.89623013544</v>
       </c>
-      <c r="EC57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EG57" s="6">
+        <f t="shared" si="38"/>
         <v>35437.765192436796</v>
       </c>
-      <c r="ED57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EH57" s="6">
+        <f t="shared" si="38"/>
         <v>35792.142844361166</v>
       </c>
-      <c r="EE57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EI57" s="6">
+        <f t="shared" si="38"/>
         <v>36150.064272804775</v>
       </c>
-      <c r="EF57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EJ57" s="6">
+        <f t="shared" si="38"/>
         <v>36511.564915532821</v>
       </c>
-      <c r="EG57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EK57" s="6">
+        <f t="shared" si="38"/>
         <v>36876.680564688148</v>
       </c>
-      <c r="EH57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EL57" s="6">
+        <f t="shared" si="38"/>
         <v>37245.44737033503</v>
       </c>
-      <c r="EI57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EM57" s="6">
+        <f t="shared" si="38"/>
         <v>37617.901844038381</v>
       </c>
-      <c r="EJ57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EN57" s="6">
+        <f t="shared" si="38"/>
         <v>37994.080862478768</v>
       </c>
-      <c r="EK57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EO57" s="6">
+        <f t="shared" si="38"/>
         <v>38374.021671103554</v>
       </c>
-      <c r="EL57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EP57" s="6">
+        <f t="shared" si="38"/>
         <v>38757.761887814588</v>
       </c>
-      <c r="EM57" s="6">
-        <f t="shared" si="32"/>
+      <c r="EQ57" s="6">
+        <f t="shared" si="38"/>
         <v>39145.339506692733</v>
       </c>
-      <c r="EN57" s="6">
-        <f t="shared" si="32"/>
+      <c r="ER57" s="6">
+        <f t="shared" si="38"/>
         <v>39536.792901759662</v>
       </c>
     </row>
-    <row r="58" spans="2:144" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="18">
-        <f>+Z57/Y57-1</f>
+    <row r="58" spans="2:148" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="18">
+        <f>+AD57/AC57-1</f>
         <v>0.10851997229277299</v>
       </c>
-      <c r="AA58" s="18">
-        <f>+AA57/Z57-1</f>
+      <c r="AE58" s="18">
+        <f>+AE57/AD57-1</f>
         <v>0.24973963757550521</v>
       </c>
-      <c r="AB58" s="18">
-        <f>+AB57/AA57-1</f>
+      <c r="AF58" s="18">
+        <f>+AF57/AE57-1</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="AC58" s="19">
-        <f t="shared" ref="AC58:AF58" si="33">+AC57/AB57-1</f>
+      <c r="AG58" s="19">
+        <f t="shared" ref="AG58:AJ58" si="39">+AG57/AF57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AD58" s="19">
-        <f t="shared" si="33"/>
+      <c r="AH58" s="19">
+        <f t="shared" si="39"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AE58" s="19">
-        <f t="shared" si="33"/>
+      <c r="AI58" s="19">
+        <f t="shared" si="39"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AF58" s="19">
-        <f t="shared" si="33"/>
+      <c r="AJ58" s="19">
+        <f t="shared" si="39"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AG58" s="19">
-        <f t="shared" ref="AG58" si="34">+AG57/AF57-1</f>
+      <c r="AK58" s="19">
+        <f t="shared" ref="AK58" si="40">+AK57/AJ57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AH58" s="19">
-        <f t="shared" ref="AH58" si="35">+AH57/AG57-1</f>
+      <c r="AL58" s="19">
+        <f t="shared" ref="AL58" si="41">+AL57/AK57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AI58" s="19">
-        <f t="shared" ref="AI58" si="36">+AI57/AH57-1</f>
+      <c r="AM58" s="19">
+        <f t="shared" ref="AM58" si="42">+AM57/AL57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AJ58" s="19">
-        <f t="shared" ref="AJ58" si="37">+AJ57/AI57-1</f>
+      <c r="AN58" s="19">
+        <f t="shared" ref="AN58" si="43">+AN57/AM57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AK58" s="19">
-        <f t="shared" ref="AK58" si="38">+AK57/AJ57-1</f>
+      <c r="AO58" s="19">
+        <f t="shared" ref="AO58" si="44">+AO57/AN57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AL58" s="19">
-        <f t="shared" ref="AL58" si="39">+AL57/AK57-1</f>
+      <c r="AP58" s="19">
+        <f t="shared" ref="AP58" si="45">+AP57/AO57-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AM58" s="19">
-        <f t="shared" ref="AM58" si="40">+AM57/AL57-1</f>
+      <c r="AQ58" s="19">
+        <f t="shared" ref="AQ58" si="46">+AQ57/AP57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AN58" s="19">
-        <f t="shared" ref="AN58" si="41">+AN57/AM57-1</f>
+      <c r="AR58" s="19">
+        <f t="shared" ref="AR58" si="47">+AR57/AQ57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AO58" s="19">
-        <f t="shared" ref="AO58" si="42">+AO57/AN57-1</f>
+      <c r="AS58" s="19">
+        <f t="shared" ref="AS58" si="48">+AS57/AR57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AP58" s="19">
-        <f t="shared" ref="AP58" si="43">+AP57/AO57-1</f>
+      <c r="AT58" s="19">
+        <f t="shared" ref="AT58" si="49">+AT57/AS57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AQ58" s="19">
-        <f t="shared" ref="AQ58" si="44">+AQ57/AP57-1</f>
+      <c r="AU58" s="19">
+        <f t="shared" ref="AU58" si="50">+AU57/AT57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AR58" s="19">
-        <f t="shared" ref="AR58" si="45">+AR57/AQ57-1</f>
+      <c r="AV58" s="19">
+        <f t="shared" ref="AV58" si="51">+AV57/AU57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AS58" s="19">
-        <f t="shared" ref="AS58" si="46">+AS57/AR57-1</f>
+      <c r="AW58" s="19">
+        <f t="shared" ref="AW58" si="52">+AW57/AV57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AT58" s="19">
-        <f t="shared" ref="AT58" si="47">+AT57/AS57-1</f>
+      <c r="AX58" s="19">
+        <f t="shared" ref="AX58" si="53">+AX57/AW57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AU58" s="19">
-        <f t="shared" ref="AU58" si="48">+AU57/AT57-1</f>
+      <c r="AY58" s="19">
+        <f t="shared" ref="AY58" si="54">+AY57/AX57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AV58" s="19">
-        <f t="shared" ref="AV58" si="49">+AV57/AU57-1</f>
+      <c r="AZ58" s="19">
+        <f t="shared" ref="AZ58" si="55">+AZ57/AY57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AW58" s="19">
-        <f t="shared" ref="AW58" si="50">+AW57/AV57-1</f>
+      <c r="BA58" s="19">
+        <f t="shared" ref="BA58" si="56">+BA57/AZ57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AX58" s="19">
-        <f t="shared" ref="AX58" si="51">+AX57/AW57-1</f>
+      <c r="BB58" s="19">
+        <f t="shared" ref="BB58" si="57">+BB57/BA57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AY58" s="19">
-        <f t="shared" ref="AY58" si="52">+AY57/AX57-1</f>
+      <c r="BC58" s="19">
+        <f t="shared" ref="BC58" si="58">+BC57/BB57-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
         <v>58</v>
       </c>
@@ -3561,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
         <v>59</v>
       </c>
@@ -3582,7 +3729,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="61" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:148" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>31</v>
       </c>
@@ -3607,14 +3754,17 @@
       <c r="Q61" s="6">
         <v>-137</v>
       </c>
-      <c r="AD61" s="11" t="s">
+      <c r="U61" s="5">
+        <v>135</v>
+      </c>
+      <c r="AH61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AE61" s="12">
+      <c r="AI61" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>32</v>
       </c>
@@ -3642,25 +3792,25 @@
         <f>SUM(Q59:Q61)</f>
         <v>2641</v>
       </c>
-      <c r="AD62" s="5" t="s">
+      <c r="AH62" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE62" s="10">
+      <c r="AI62" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:148" x14ac:dyDescent="0.25">
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="AD63" s="5" t="s">
+      <c r="AH63" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AE63" s="10">
+      <c r="AI63" s="10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="2:144" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
         <v>63</v>
       </c>
@@ -3676,15 +3826,15 @@
       <c r="Q64" s="6">
         <v>-4335</v>
       </c>
-      <c r="AD64" s="5" t="s">
+      <c r="AH64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE64" s="6">
-        <f>NPV(AE63,AB57:DJ57)+Main!M5-Main!M6</f>
-        <v>170426.7215866865</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AI64" s="6">
+        <f>NPV(AI63,AF57:DN57)+Main!M5-Main!M6</f>
+        <v>164794.7215866865</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="21" t="s">
         <v>64</v>
       </c>
@@ -3700,15 +3850,15 @@
       <c r="Q65" s="6">
         <v>202</v>
       </c>
-      <c r="AD65" s="11" t="s">
+      <c r="AH65" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AE65" s="20">
-        <f>+AE64/1000</f>
-        <v>170.42672158668651</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AI65" s="20">
+        <f>+AI64/1000</f>
+        <v>164.79472158668651</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>4</v>
       </c>
@@ -3725,12 +3875,12 @@
         <f>-285-1000</f>
         <v>-1285</v>
       </c>
-      <c r="AE66" s="10">
-        <f>+AE65/Main!M2-1</f>
-        <v>-0.35688029589929615</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AI66" s="10">
+        <f>+AI65/Main!M2-1</f>
+        <v>-0.3046636219971034</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>65</v>
       </c>
@@ -3747,7 +3897,7 @@
         <v>-384</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>62</v>
       </c>
@@ -3768,13 +3918,13 @@
         <v>-5802</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>61</v>
       </c>
@@ -3791,7 +3941,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>60</v>
       </c>
